--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-849975.5588063123</v>
+        <v>-852543.7590856788</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F11" t="n">
-        <v>24.69043749906156</v>
+        <v>379.9549295429074</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0006094546493</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412179</v>
+        <v>14.65581357412188</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937168</v>
+        <v>82.26664558937176</v>
       </c>
       <c r="T11" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713307</v>
+        <v>300.8311422713309</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.319852518609</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8099844796649</v>
+        <v>226.2231033126758</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3257048998238</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1046920602241</v>
+        <v>139.1046920602242</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103393</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01103647124328</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326377</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T13" t="n">
-        <v>192.627833077365</v>
+        <v>141.9834346233577</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
-        <v>102.3602424551326</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377868</v>
+        <v>259.601882137787</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646764</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3517755722034</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218788</v>
+        <v>206.8316012100372</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0092538734576</v>
+        <v>355.0092538734577</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9549295429074</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0006094546493</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937168</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8311422713307</v>
+        <v>300.8311422713309</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3198525186089</v>
+        <v>322.319852518609</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.39128006961027</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9108639831333</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>140.3257048998238</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>51.92444429115805</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1046920602242</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8338987155166</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103393</v>
+        <v>69.43130421103405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124317</v>
+        <v>62.01103647124327</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8479091326377</v>
+        <v>162.8479091326379</v>
       </c>
       <c r="T16" t="n">
-        <v>192.627833077365</v>
+        <v>74.23107814457268</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2907220068087</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2165271250238</v>
+        <v>225.216527125024</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6018821377868</v>
+        <v>259.601882137787</v>
       </c>
       <c r="X16" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="17">
@@ -1847,19 +1847,19 @@
         <v>291.3766389536108</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>177.0401683159057</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29150897077912</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U17" t="n">
-        <v>160.1386731656554</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>253.8560056527382</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3416858386569</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>168.3509353463471</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123111</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081563</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1295554416315</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692405</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244137</v>
+        <v>22.4561675924414</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265063</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2879804958517</v>
+        <v>115.8727725140452</v>
       </c>
       <c r="T19" t="n">
         <v>145.6526964587725</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
         <v>178.2413905064313</v>
@@ -2065,7 +2065,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6884005346981</v>
@@ -2084,19 +2084,19 @@
         <v>291.3766389536108</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>220.6527607443246</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699237</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077913</v>
+        <v>35.29150897077915</v>
       </c>
       <c r="T20" t="n">
-        <v>50.83917922504669</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
         <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8560056527382</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3416858386569</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645406</v>
+        <v>168.3509353463467</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123112</v>
+        <v>93.35056828123115</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081567</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917248</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553456</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12955544163151</v>
+        <v>92.12955544163154</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692407</v>
+        <v>70.8587620969241</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4561675924414</v>
+        <v>22.45616759244141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03589985265063</v>
+        <v>15.03589985265064</v>
       </c>
       <c r="S22" t="n">
         <v>115.8727725140452</v>
@@ -2293,7 +2293,7 @@
         <v>145.6526964587725</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
         <v>178.2413905064313</v>
@@ -2302,7 +2302,7 @@
         <v>212.6267455191943</v>
       </c>
       <c r="X22" t="n">
-        <v>214.2286105534464</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6884005346981</v>
@@ -2318,22 +2318,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.376638953611</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077912</v>
+        <v>35.2915089707792</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U23" t="n">
         <v>177.0989191415053</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527383</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3416858386569</v>
+        <v>312.341685838657</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35056828123112</v>
+        <v>93.3505682812312</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081564</v>
+        <v>74.71922020081573</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917246</v>
+        <v>72.53770982917254</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553453</v>
+        <v>71.52479520553462</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12955544163151</v>
+        <v>92.1295554416316</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692407</v>
+        <v>70.85876209692415</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244138</v>
+        <v>22.45616759244147</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265062</v>
+        <v>15.0358998526507</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140453</v>
       </c>
       <c r="T25" t="n">
-        <v>208.067904440579</v>
+        <v>145.6526964587726</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2413905064313</v>
+        <v>240.6565984882365</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191944</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6884005346981</v>
+        <v>144.6884005346982</v>
       </c>
     </row>
     <row r="26">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C35" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231189</v>
@@ -3281,7 +3281,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958336</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3332,7 +3332,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1464.890437807952</v>
+        <v>1435.864056584918</v>
       </c>
       <c r="C11" t="n">
-        <v>1123.120967532999</v>
+        <v>1094.094586309965</v>
       </c>
       <c r="D11" t="n">
-        <v>1123.120967532999</v>
+        <v>1094.094586309965</v>
       </c>
       <c r="E11" t="n">
-        <v>764.5257616002132</v>
+        <v>735.4993803771791</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5859257425748</v>
+        <v>351.7065222530303</v>
       </c>
       <c r="G11" t="n">
-        <v>351.70652225303</v>
+        <v>351.7065222530303</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725596</v>
+        <v>81.31596852725613</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3242.508199801725</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723498851406</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.386068790701</v>
+        <v>3016.17076974102</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516228112589</v>
+        <v>2712.300929062908</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.516228112589</v>
+        <v>2386.725320458253</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.243516516968</v>
+        <v>2158.217135293934</v>
       </c>
       <c r="Y11" t="n">
-        <v>1824.297231206615</v>
+        <v>1795.270849983581</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.5192175211482</v>
+        <v>469.4850895713886</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5192175211482</v>
+        <v>327.7419533089403</v>
       </c>
       <c r="D13" t="n">
-        <v>636.5956247742711</v>
+        <v>327.7419533089403</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8755778573367</v>
+        <v>207.0219063920058</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1786770248851</v>
+        <v>207.0219063920058</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6688870650628</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>138.2866539159351</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016275</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946396023305</v>
+        <v>1082.946396023304</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988181723215</v>
+        <v>1776.988181723214</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.509788383021</v>
+        <v>2140.50978838302</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.509788383021</v>
+        <v>2077.872377806007</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.016950875306</v>
+        <v>1913.379540298292</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.443382110291</v>
+        <v>1769.961929567628</v>
       </c>
       <c r="U13" t="n">
-        <v>1519.533561901394</v>
+        <v>1508.05210935873</v>
       </c>
       <c r="V13" t="n">
-        <v>1416.13937760328</v>
+        <v>1280.560667818302</v>
       </c>
       <c r="W13" t="n">
-        <v>1153.915254231778</v>
+        <v>1018.3365444468</v>
       </c>
       <c r="X13" t="n">
-        <v>953.1187499992195</v>
+        <v>817.540040214241</v>
       </c>
       <c r="Y13" t="n">
-        <v>759.5192175211482</v>
+        <v>623.9405077361696</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1756.219401796533</v>
+        <v>1747.469863556684</v>
       </c>
       <c r="C14" t="n">
-        <v>1414.44993152158</v>
+        <v>1405.700393281731</v>
       </c>
       <c r="D14" t="n">
-        <v>1083.377279580288</v>
+        <v>1196.779583978663</v>
       </c>
       <c r="E14" t="n">
-        <v>724.7820736475023</v>
+        <v>838.1843780458772</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7820736475023</v>
+        <v>454.3915199217283</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9026701579576</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
@@ -5285,43 +5285,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851405</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.3860687907</v>
+        <v>3099.268391548468</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516228112589</v>
+        <v>2795.398550870355</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.940619507933</v>
+        <v>2469.8229422657</v>
       </c>
       <c r="X14" t="n">
-        <v>2207.940619507933</v>
+        <v>2469.8229422657</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.626195195196</v>
+        <v>2106.876656955347</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>572.7845497018207</v>
+        <v>537.9218132873337</v>
       </c>
       <c r="C16" t="n">
-        <v>431.0414134393725</v>
+        <v>396.1786770248855</v>
       </c>
       <c r="D16" t="n">
-        <v>308.1178206924955</v>
+        <v>396.1786770248855</v>
       </c>
       <c r="E16" t="n">
-        <v>308.1178206924955</v>
+        <v>396.1786770248855</v>
       </c>
       <c r="F16" t="n">
-        <v>255.6688870650631</v>
+        <v>396.1786770248855</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6688870650631</v>
+        <v>255.668887065063</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483793</v>
+        <v>136.6447469483794</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>138.2866539159351</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9257419016276</v>
+        <v>368.9257419016274</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1374453869398</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M16" t="n">
         <v>1082.946396023305</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.006677765986</v>
+        <v>1451.006677765985</v>
       </c>
       <c r="O16" t="n">
         <v>1776.988181723215</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.247587193691</v>
+        <v>2036.24758719369</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.509788383022</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
         <v>2077.872377806008</v>
@@ -5464,22 +5464,22 @@
         <v>1913.379540298293</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.805971533278</v>
+        <v>1838.398653283573</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.896151324381</v>
+        <v>1576.488833074675</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.404709783953</v>
+        <v>1348.997391534247</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124506</v>
+        <v>1086.773268162745</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3840821798919</v>
+        <v>885.9767639301863</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7845497018207</v>
+        <v>692.3772314521148</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1571.691443239023</v>
+        <v>1697.799689900515</v>
       </c>
       <c r="C17" t="n">
-        <v>1277.371605912143</v>
+        <v>1403.479852573636</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.371605912143</v>
+        <v>1119.856833580417</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274311</v>
+        <v>808.711260595705</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513556</v>
+        <v>629.8828077513557</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.957832749799</v>
       </c>
       <c r="T17" t="n">
-        <v>3194.270753606925</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U17" t="n">
-        <v>3032.514518086061</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="V17" t="n">
-        <v>2776.094310356022</v>
+        <v>2902.202557017515</v>
       </c>
       <c r="W17" t="n">
-        <v>2497.96833469944</v>
+        <v>2624.076581360932</v>
       </c>
       <c r="X17" t="n">
-        <v>2199.145256051892</v>
+        <v>2325.253502713384</v>
       </c>
       <c r="Y17" t="n">
-        <v>1883.648603689613</v>
+        <v>2009.756850351105</v>
       </c>
     </row>
     <row r="18">
@@ -5568,70 +5568,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470831</v>
+        <v>569.1149231470833</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327082</v>
+        <v>474.8214198327085</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339046</v>
+        <v>399.3474600339048</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650435</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806652</v>
+        <v>253.8297781806653</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030601</v>
+        <v>89.19511400030606</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.017901271824</v>
+        <v>1795.063565899912</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.893965454882</v>
+        <v>1647.93963008297</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.433778194058</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.391969601703</v>
+        <v>1253.437634229791</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782742</v>
+        <v>1038.663143806362</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937888</v>
+        <v>885.3162725218765</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637908</v>
+        <v>739.1663729918785</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232241</v>
+        <v>1518.911892787884</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905362</v>
+        <v>1224.592055461004</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>940.9690364677859</v>
       </c>
       <c r="E20" t="n">
-        <v>966.226032927431</v>
+        <v>629.8234634830737</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513555</v>
+        <v>406.941886973655</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098842</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5774,28 +5774,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.957832749798</v>
+        <v>3289.957832749799</v>
       </c>
       <c r="T20" t="n">
-        <v>3238.605126461872</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U20" t="n">
-        <v>3059.717329349241</v>
+        <v>2979.734967634922</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.717329349241</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.591353692659</v>
+        <v>2445.188784248301</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.768275045111</v>
+        <v>2146.365705600753</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.271622682831</v>
+        <v>1830.869053238474</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470831</v>
+        <v>569.1149231470833</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327083</v>
+        <v>474.8214198327085</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339046</v>
+        <v>399.3474600339048</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650435</v>
+        <v>326.0770460650436</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806652</v>
+        <v>253.8297781806653</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689163</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030609</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459552</v>
+        <v>1912.106770459553</v>
       </c>
       <c r="S22" t="n">
         <v>1795.063565899911</v>
@@ -5941,7 +5941,7 @@
         <v>1647.939630082969</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.479442822144</v>
+        <v>1433.479442822145</v>
       </c>
       <c r="V22" t="n">
         <v>1253.43763422979</v>
@@ -5950,10 +5950,10 @@
         <v>1038.663143806361</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937888</v>
+        <v>885.316272521876</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637908</v>
+        <v>739.166372991878</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.17982079233</v>
+        <v>1862.179820792331</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.85998346545</v>
+        <v>1567.859983465451</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.236964472232</v>
+        <v>1284.236964472233</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0913914875196</v>
+        <v>973.0913914875207</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114447</v>
+        <v>636.7481663114451</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699731</v>
+        <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6622549716508</v>
+        <v>429.6622549716509</v>
       </c>
       <c r="K23" t="n">
         <v>763.4816286614973</v>
@@ -6008,31 +6008,31 @@
         <v>3192.573400877128</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.856683056816</v>
+        <v>3544.797427382565</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613618</v>
+        <v>3668.87374961362</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754247</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692751999</v>
+        <v>3501.890692752001</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639368</v>
+        <v>3323.00289563937</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.582687909329</v>
+        <v>3066.582687909331</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.456712252747</v>
+        <v>2788.456712252749</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.6336336052</v>
+        <v>2489.633633605201</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.13698124292</v>
+        <v>2174.136981242921</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073442</v>
+        <v>92.38476659073444</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J24" t="n">
         <v>167.0547444828897</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.980281707172</v>
+        <v>575.9802817071727</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927972</v>
+        <v>481.6867783927978</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939935</v>
+        <v>406.212818593994</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251324</v>
+        <v>332.9424046251328</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>260.6951367407544</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290051</v>
+        <v>167.6349797290054</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039497</v>
+        <v>96.06047256039508</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227237</v>
+        <v>73.3774749922724</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5001074392079</v>
+        <v>118.500107439208</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4872903880843</v>
+        <v>322.4872903880844</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365804</v>
+        <v>639.0470888365805</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361294</v>
+        <v>983.2041344361296</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
       </c>
       <c r="O25" t="n">
-        <v>1623.942110062407</v>
+        <v>1623.942110062408</v>
       </c>
       <c r="P25" t="n">
         <v>1856.549610496067</v>
@@ -6175,22 +6175,22 @@
         <v>1801.92892446</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.759324014971</v>
+        <v>1654.804988643058</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.299136754146</v>
+        <v>1440.344801382234</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.257328161792</v>
+        <v>1197.257328161793</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4828377383631</v>
+        <v>982.482837738364</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1359664538777</v>
+        <v>829.1359664538786</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9860669238797</v>
+        <v>682.9860669238805</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6203,43 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>393.2994530991701</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890166</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.68494470935</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768132</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647469</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P26" t="n">
         <v>3474.791320094415</v>
@@ -6248,7 +6248,7 @@
         <v>3933.269522603403</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6379,19 +6379,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6440,7 +6440,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038483</v>
@@ -6449,55 +6449,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991701</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890166</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.68494470935</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768132</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>393.2994530991701</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890166</v>
+        <v>625.3777437664567</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037425</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.68494470935</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768132</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6880,28 +6880,28 @@
         <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,22 +6935,22 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991701</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>727.1188267890166</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037425</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>1711.68494470935</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2258.463761768132</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>2761.436232647469</v>
       </c>
       <c r="P35" t="n">
         <v>3474.791320094415</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7111,34 +7111,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1711.59465869716</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
@@ -7175,22 +7175,22 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>810.8729904741854</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1261.907203722594</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2240.457506552423</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611205</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490542</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.98316084772</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
         <v>3933.269522603402</v>
@@ -7214,10 +7214,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
         <v>81.14691689668915</v>
@@ -7296,7 +7296,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
@@ -7330,16 +7330,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7409,25 +7409,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>1092.155029011367</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L41" t="n">
-        <v>1543.189242259776</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M41" t="n">
-        <v>2076.7211469317</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N41" t="n">
-        <v>2623.499963990483</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O41" t="n">
-        <v>3126.47243486982</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
@@ -7442,7 +7442,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
         <v>3346.282596468334</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
@@ -7567,13 +7567,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
         <v>1176.995117350173</v>
@@ -7646,25 +7646,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>270.0260478557147</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>924.7493799910144</v>
+        <v>810.8729904741854</v>
       </c>
       <c r="L44" t="n">
-        <v>1375.783593239423</v>
+        <v>1261.907203722594</v>
       </c>
       <c r="M44" t="n">
-        <v>1909.315497911348</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N44" t="n">
-        <v>2456.09431497013</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O44" t="n">
-        <v>2959.066785849467</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3672.421873296413</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D45" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F45" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7807,13 +7807,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886088</v>
+        <v>164.44501878861</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592904</v>
+        <v>195.2094266592922</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419187</v>
+        <v>204.9000484419209</v>
       </c>
       <c r="M8" t="n">
-        <v>196.0014531526774</v>
+        <v>196.0014531526798</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740265</v>
+        <v>194.512549074029</v>
       </c>
       <c r="O8" t="n">
-        <v>197.142645220105</v>
+        <v>197.1426452201074</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561905</v>
+        <v>203.1061824561925</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567224</v>
+        <v>201.183624456724</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485204</v>
+        <v>116.9502528485211</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814157</v>
+        <v>120.9423422814169</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981495</v>
+        <v>115.8314587981511</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072878</v>
+        <v>115.6174569072897</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775603</v>
+        <v>104.1233201775623</v>
       </c>
       <c r="O9" t="n">
-        <v>117.696733395144</v>
+        <v>117.6967333951458</v>
       </c>
       <c r="P9" t="n">
-        <v>113.990354617596</v>
+        <v>113.9903546175974</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213388</v>
+        <v>126.6229640213398</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218789</v>
+        <v>121.8405463218798</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274367</v>
+        <v>125.1725778274376</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466752</v>
+        <v>114.2593588466762</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419908</v>
+        <v>126.0552829419917</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773782</v>
+        <v>127.1165875773789</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.7039600242476</v>
+        <v>104.9875401512669</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5185911550055</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550055</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550055</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.2206841544144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>40.02214132148612</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>231.1066821161365</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>40.02214132148612</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>12.68816924374434</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085646</v>
+        <v>15.10714246085647</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>355.2644920438457</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9968539408161</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3198525186089</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>116.5868811669892</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831331</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998237</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4999318241272</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43130421103402</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124317</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>50.64439845400742</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>122.8562846698913</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>120.9303242118417</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412179</v>
+        <v>14.65581357412188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26664558937176</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9968539408161</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8099844796649</v>
+        <v>342.809984479665</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.9255423876392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9108639831331</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F16" t="n">
-        <v>66.57548753296903</v>
+        <v>118.4999318241272</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.3967549327925</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>155.9396246084091</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077909</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>16.96024597584986</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.3270321799902</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>79.18253809717675</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1248529.639088013</v>
+        <v>1248529.639088014</v>
       </c>
     </row>
     <row r="5">
@@ -26314,7 +26314,7 @@
         <v>266264.8100830375</v>
       </c>
       <c r="C2" t="n">
-        <v>266265.1921647783</v>
+        <v>266265.1921647785</v>
       </c>
       <c r="D2" t="n">
         <v>266269.8701270916</v>
@@ -26323,37 +26323,37 @@
         <v>237101.0568592095</v>
       </c>
       <c r="F2" t="n">
-        <v>237101.0568592095</v>
+        <v>237101.0568592096</v>
       </c>
       <c r="G2" t="n">
-        <v>258222.8680790815</v>
+        <v>258222.8680790816</v>
       </c>
       <c r="H2" t="n">
         <v>258222.8680790816</v>
       </c>
       <c r="I2" t="n">
-        <v>266838.5752058919</v>
+        <v>266838.5752058918</v>
       </c>
       <c r="J2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.575205892</v>
       </c>
       <c r="K2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="N2" t="n">
         <v>266838.575205892</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936409</v>
+        <v>38521.8501593611</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.961015502</v>
+        <v>1106215.961015505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487393</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071785</v>
+        <v>22820.53767071763</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.34822049036</v>
+        <v>25410.34822049027</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.8573343054</v>
+        <v>422862.8573343064</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.30988554737</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554745</v>
+        <v>38195.30988554735</v>
       </c>
       <c r="G4" t="n">
+        <v>75223.10714400178</v>
+      </c>
+      <c r="H4" t="n">
         <v>75223.10714400184</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75223.10714400183</v>
       </c>
       <c r="I4" t="n">
         <v>86759.13279157181</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409841</v>
       </c>
       <c r="K4" t="n">
-        <v>82806.76150409839</v>
+        <v>82806.76150409838</v>
       </c>
       <c r="L4" t="n">
         <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
+        <v>82806.76150409835</v>
+      </c>
+      <c r="N4" t="n">
+        <v>82806.76150409837</v>
+      </c>
+      <c r="O4" t="n">
+        <v>82806.76150409838</v>
+      </c>
+      <c r="P4" t="n">
         <v>82806.76150409839</v>
-      </c>
-      <c r="N4" t="n">
-        <v>82806.76150409838</v>
-      </c>
-      <c r="O4" t="n">
-        <v>82806.76150409839</v>
-      </c>
-      <c r="P4" t="n">
-        <v>82806.76150409837</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058922</v>
+        <v>34688.26308058915</v>
       </c>
       <c r="E5" t="n">
         <v>76569.57187911056</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.57187911056</v>
+        <v>76569.57187911059</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.72463949902</v>
+        <v>80518.72463949905</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949901</v>
+        <v>80518.72463949904</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516661</v>
+        <v>85736.39714516664</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-203636.6696362106</v>
+        <v>-203641.0832140787</v>
       </c>
       <c r="C6" t="n">
-        <v>-206028.9658972754</v>
+        <v>-206033.3765360531</v>
       </c>
       <c r="D6" t="n">
-        <v>-229803.1004471671</v>
+        <v>-229807.4751016173</v>
       </c>
       <c r="E6" t="n">
-        <v>-983879.7859209508</v>
+        <v>-984108.5360620816</v>
       </c>
       <c r="F6" t="n">
-        <v>122336.1750945515</v>
+        <v>122107.424953423</v>
       </c>
       <c r="G6" t="n">
-        <v>64900.92700070659</v>
+        <v>64834.65233050062</v>
       </c>
       <c r="H6" t="n">
-        <v>102481.0362955809</v>
+        <v>102414.7616253744</v>
       </c>
       <c r="I6" t="n">
-        <v>71522.50759843556</v>
+        <v>71522.50759843571</v>
       </c>
       <c r="J6" t="n">
-        <v>69243.52380649734</v>
+        <v>69243.52380649722</v>
       </c>
       <c r="K6" t="n">
-        <v>94653.87202698769</v>
+        <v>94653.87202698761</v>
       </c>
       <c r="L6" t="n">
-        <v>57073.76273211357</v>
+        <v>57073.76273211336</v>
       </c>
       <c r="M6" t="n">
-        <v>-112534.6962650855</v>
+        <v>-112534.6962650852</v>
       </c>
       <c r="N6" t="n">
         <v>94653.87202698755</v>
       </c>
       <c r="O6" t="n">
-        <v>94653.87202698746</v>
+        <v>94653.87202698778</v>
       </c>
       <c r="P6" t="n">
-        <v>94653.87202698755</v>
+        <v>94653.87202698758</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859249</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="M2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859254</v>
-      </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975179916</v>
+        <v>48.65426975179566</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034046</v>
+        <v>917.218437403405</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855683</v>
+        <v>44.98040685855334</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841499</v>
+        <v>1041.122430841503</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.81698200111191</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11802380520999</v>
+        <v>97.11802380520965</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859263</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661365</v>
+        <v>337.4716642661367</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403306</v>
+        <v>202.9352112403311</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128222</v>
+        <v>137.5825701128231</v>
       </c>
       <c r="S8" t="n">
-        <v>204.562947286872</v>
+        <v>204.5629472868723</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140268</v>
+        <v>222.2396322140269</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27950,7 +27950,7 @@
         <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451297</v>
+        <v>85.79346287451322</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.6601941280538</v>
+        <v>93.66019412805427</v>
       </c>
       <c r="S9" t="n">
-        <v>169.73929532649</v>
+        <v>169.7392953264902</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28026,16 +28026,16 @@
         <v>167.9032421507096</v>
       </c>
       <c r="H10" t="n">
-        <v>161.4471089694517</v>
+        <v>161.4471089694518</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069476</v>
+        <v>152.8119778069478</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880815</v>
+        <v>87.1561595288086</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739116</v>
+        <v>12.0760235073919</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917271</v>
+        <v>78.81524851917324</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723761</v>
+        <v>173.3484074723764</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891985</v>
+        <v>222.4875777891986</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880406</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880416</v>
+        <v>26.92111619880405</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739673</v>
+        <v>11.48104483559015</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S19" t="n">
-        <v>11.48104483559024</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559058</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="X22" t="n">
-        <v>11.48104483559072</v>
+        <v>73.89625281739669</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739669</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="T25" t="n">
-        <v>11.48104483559015</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739671</v>
+        <v>11.48104483559155</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739671</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="26">
@@ -29454,7 +29454,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
         <v>46.97513661859256</v>
@@ -29469,7 +29469,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P28" t="n">
         <v>46.97513661859256</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859369</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859207</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785894</v>
+        <v>0.1955950542785754</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630604</v>
+        <v>2.00313784963046</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075326</v>
+        <v>7.540678330074784</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807744</v>
+        <v>16.60088573807625</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438569014</v>
+        <v>24.88042438568835</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806853</v>
+        <v>30.86636652806631</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459539</v>
+        <v>34.34478007459292</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256444</v>
+        <v>34.90051452256193</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158171</v>
+        <v>32.95556620157934</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329907903</v>
+        <v>28.12681329907701</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772704</v>
+        <v>21.12206541772552</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832745</v>
+        <v>12.28654782832657</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373361</v>
+        <v>4.457122299373041</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045256</v>
+        <v>0.8562173501044641</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228715</v>
+        <v>0.01564760434228602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.104652580220851</v>
+        <v>0.1046525802208435</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711903</v>
+        <v>1.010723603711831</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902108</v>
+        <v>3.603169976901849</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146282</v>
+        <v>9.887373818145571</v>
       </c>
       <c r="K9" t="n">
-        <v>16.8990966929433</v>
+        <v>16.89909669294208</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172469</v>
+        <v>22.72292098172306</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473054</v>
+        <v>26.51657701472863</v>
       </c>
       <c r="N9" t="n">
-        <v>27.218391905773</v>
+        <v>27.21839190577105</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104930046</v>
+        <v>24.89951104929867</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673426</v>
+        <v>19.98405279673283</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468267</v>
+        <v>13.35881006468171</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589331</v>
+        <v>6.497640024588865</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347823</v>
+        <v>1.943875777347684</v>
       </c>
       <c r="T9" t="n">
-        <v>0.421823338697202</v>
+        <v>0.4218233386971716</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424412</v>
+        <v>0.006885038172423917</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914601</v>
+        <v>0.08773720774913971</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878623</v>
+        <v>0.7800635379878063</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310682</v>
+        <v>2.638497120310493</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864622</v>
+        <v>6.203020587864176</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849169</v>
+        <v>10.19346831849096</v>
       </c>
       <c r="L10" t="n">
-        <v>13.0441299593594</v>
+        <v>13.04412995935846</v>
       </c>
       <c r="M10" t="n">
-        <v>13.7532061201684</v>
+        <v>13.75320612016742</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855796</v>
+        <v>13.426185618557</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985202</v>
+        <v>12.40125550985113</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176944</v>
+        <v>10.61141647176867</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521673</v>
+        <v>7.346794732521144</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793419</v>
+        <v>3.944983904793135</v>
       </c>
       <c r="S10" t="n">
-        <v>1.529020247773753</v>
+        <v>1.529020247773643</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827147</v>
+        <v>0.3748771603826878</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226152</v>
+        <v>0.004785665877225807</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187038</v>
+        <v>72.4995328118703</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9687757431237</v>
+        <v>232.9687757431236</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690022</v>
       </c>
       <c r="M13" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N13" t="n">
         <v>371.7780623663442</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2742464214439</v>
+        <v>329.2742464214438</v>
       </c>
       <c r="P13" t="n">
         <v>261.8781873439145</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366977</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187038</v>
+        <v>72.49953281187031</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431237</v>
@@ -35811,7 +35811,7 @@
         <v>346.6784883690023</v>
       </c>
       <c r="M16" t="n">
-        <v>374.554495592288</v>
+        <v>374.5544955922879</v>
       </c>
       <c r="N16" t="n">
         <v>371.7780623663442</v>
@@ -35820,10 +35820,10 @@
         <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8781873439146</v>
+        <v>261.8781873439145</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366977</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>421.498264827967</v>
+        <v>355.7818449549864</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597708</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>315.3055921237181</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36610,7 +36610,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597722</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165844</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36765,7 +36765,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237181</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36847,7 +36847,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3055921237181</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>358.9411069805475</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237181</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,10 +37479,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637041</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>377.2134278768866</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,10 +37558,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M40" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>527.4262975833881</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37795,10 +37795,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>629.8686683355083</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265653</v>
+        <v>377.2134278768866</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>263.4824740474639</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,16 +38184,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
